--- a/Zeus/data/TSP/Results/ulysses16.xlsx_short.xlsx
+++ b/Zeus/data/TSP/Results/ulysses16.xlsx_short.xlsx
@@ -62,7 +62,7 @@
     <t>optimization Info</t>
   </si>
   <si>
-    <t>Inital Solution 0 changes  totQ=0.00 totD=95.65 $95.65</t>
+    <t>Inital Solution 0 changes  totQ=0.00 totD=132.19 $132.19</t>
   </si>
 </sst>
 </file>
@@ -142,7 +142,7 @@
         <v>5</v>
       </c>
       <c r="J1" t="n">
-        <v>-1.509323122E9</v>
+        <v>-1.50950694E9</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>
@@ -159,19 +159,19 @@
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>95.65061950683594</v>
+        <v>132.18902587890625</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>55.79619471232097</v>
+        <v>77.11026509602866</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>95.65</v>
+        <v>132.19</v>
       </c>
     </row>
     <row r="3">
@@ -204,46 +204,46 @@
         <v>11.0</v>
       </c>
       <c r="C5" t="n">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
       <c r="D5" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="E5" t="n">
-        <v>6.0</v>
+        <v>14.0</v>
       </c>
       <c r="F5" t="n">
         <v>7.0</v>
       </c>
       <c r="G5" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="H5" t="n">
         <v>13.0</v>
       </c>
-      <c r="H5" t="n">
-        <v>12.0</v>
-      </c>
       <c r="I5" t="n">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
       <c r="J5" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N5" t="n">
         <v>16.0</v>
       </c>
-      <c r="K5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P5" t="n">
         <v>3.0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>15.0</v>
       </c>
       <c r="Q5" t="n">
         <v>5.0</v>

--- a/Zeus/data/TSP/Results/ulysses16.xlsx_short.xlsx
+++ b/Zeus/data/TSP/Results/ulysses16.xlsx_short.xlsx
@@ -142,7 +142,7 @@
         <v>5</v>
       </c>
       <c r="J1" t="n">
-        <v>-1.50950694E9</v>
+        <v>-1.509552458E9</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>

--- a/Zeus/data/TSP/Results/ulysses16.xlsx_short.xlsx
+++ b/Zeus/data/TSP/Results/ulysses16.xlsx_short.xlsx
@@ -142,7 +142,7 @@
         <v>5</v>
       </c>
       <c r="J1" t="n">
-        <v>-1.509552458E9</v>
+        <v>-1.509629939E9</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>

--- a/Zeus/data/TSP/Results/ulysses16.xlsx_short.xlsx
+++ b/Zeus/data/TSP/Results/ulysses16.xlsx_short.xlsx
@@ -142,7 +142,7 @@
         <v>5</v>
       </c>
       <c r="J1" t="n">
-        <v>-1.509629939E9</v>
+        <v>-1.509640925E9</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>

--- a/Zeus/data/TSP/Results/ulysses16.xlsx_short.xlsx
+++ b/Zeus/data/TSP/Results/ulysses16.xlsx_short.xlsx
@@ -142,7 +142,7 @@
         <v>5</v>
       </c>
       <c r="J1" t="n">
-        <v>-1.509640925E9</v>
+        <v>-1.509649019E9</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>

--- a/Zeus/data/TSP/Results/ulysses16.xlsx_short.xlsx
+++ b/Zeus/data/TSP/Results/ulysses16.xlsx_short.xlsx
@@ -142,7 +142,7 @@
         <v>5</v>
       </c>
       <c r="J1" t="n">
-        <v>-1.509640925E9</v>
+        <v>-1.509644424E9</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>

--- a/Zeus/data/TSP/Results/ulysses16.xlsx_short.xlsx
+++ b/Zeus/data/TSP/Results/ulysses16.xlsx_short.xlsx
@@ -142,7 +142,7 @@
         <v>5</v>
       </c>
       <c r="J1" t="n">
-        <v>-1.509644424E9</v>
+        <v>-1.510263593E9</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>

--- a/Zeus/data/TSP/Results/ulysses16.xlsx_short.xlsx
+++ b/Zeus/data/TSP/Results/ulysses16.xlsx_short.xlsx
@@ -142,7 +142,7 @@
         <v>5</v>
       </c>
       <c r="J1" t="n">
-        <v>-1.510263593E9</v>
+        <v>-1.510765432E9</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>

--- a/Zeus/data/TSP/Results/ulysses16.xlsx_short.xlsx
+++ b/Zeus/data/TSP/Results/ulysses16.xlsx_short.xlsx
@@ -142,7 +142,7 @@
         <v>5</v>
       </c>
       <c r="J1" t="n">
-        <v>-1.510765432E9</v>
+        <v>-1.510847105E9</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>

--- a/Zeus/data/TSP/Results/ulysses16.xlsx_short.xlsx
+++ b/Zeus/data/TSP/Results/ulysses16.xlsx_short.xlsx
@@ -142,7 +142,7 @@
         <v>5</v>
       </c>
       <c r="J1" t="n">
-        <v>-1.510847105E9</v>
+        <v>-1.510858857E9</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>

--- a/Zeus/data/TSP/Results/ulysses16.xlsx_short.xlsx
+++ b/Zeus/data/TSP/Results/ulysses16.xlsx_short.xlsx
@@ -142,7 +142,7 @@
         <v>5</v>
       </c>
       <c r="J1" t="n">
-        <v>-1.510858857E9</v>
+        <v>-1.510868288E9</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>
